--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H2">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I2">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J2">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>462.0712015199489</v>
+        <v>655.6352868414631</v>
       </c>
       <c r="R2">
-        <v>462.0712015199489</v>
+        <v>5900.717581573167</v>
       </c>
       <c r="S2">
-        <v>0.008741457416398812</v>
+        <v>0.01194440921546873</v>
       </c>
       <c r="T2">
-        <v>0.008741457416398812</v>
+        <v>0.01194440921546873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H3">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I3">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J3">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>491.8477922879608</v>
+        <v>691.0638793315719</v>
       </c>
       <c r="R3">
-        <v>491.8477922879608</v>
+        <v>6219.574913984147</v>
       </c>
       <c r="S3">
-        <v>0.009304770601353646</v>
+        <v>0.01258984977536994</v>
       </c>
       <c r="T3">
-        <v>0.009304770601353646</v>
+        <v>0.01258984977536994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H4">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I4">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J4">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>317.1557411831262</v>
+        <v>446.4888410783337</v>
       </c>
       <c r="R4">
-        <v>317.1557411831262</v>
+        <v>4018.399569705004</v>
       </c>
       <c r="S4">
-        <v>0.005999948485859074</v>
+        <v>0.00813416473306686</v>
       </c>
       <c r="T4">
-        <v>0.005999948485859074</v>
+        <v>0.00813416473306686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H5">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I5">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J5">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>245.9157331180542</v>
+        <v>348.2501392563684</v>
       </c>
       <c r="R5">
-        <v>245.9157331180542</v>
+        <v>3134.251253307315</v>
       </c>
       <c r="S5">
-        <v>0.004652230872650823</v>
+        <v>0.006344445236712626</v>
       </c>
       <c r="T5">
-        <v>0.004652230872650823</v>
+        <v>0.006344445236712625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.85038229164661</v>
+        <v>4.004809333333333</v>
       </c>
       <c r="H6">
-        <v>2.85038229164661</v>
+        <v>12.014428</v>
       </c>
       <c r="I6">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100274</v>
       </c>
       <c r="J6">
-        <v>0.03177398830664951</v>
+        <v>0.04337108182100273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>162.5744207378748</v>
+        <v>239.2247357980577</v>
       </c>
       <c r="R6">
-        <v>162.5744207378748</v>
+        <v>2153.02262218252</v>
       </c>
       <c r="S6">
-        <v>0.003075580930387158</v>
+        <v>0.004358212860384575</v>
       </c>
       <c r="T6">
-        <v>0.003075580930387158</v>
+        <v>0.004358212860384574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H7">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I7">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J7">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>10487.60199464407</v>
+        <v>10610.01600567014</v>
       </c>
       <c r="R7">
-        <v>10487.60199464407</v>
+        <v>95490.14405103119</v>
       </c>
       <c r="S7">
-        <v>0.1984043280229452</v>
+        <v>0.1932940088763729</v>
       </c>
       <c r="T7">
-        <v>0.1984043280229452</v>
+        <v>0.1932940088763729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H8">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I8">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J8">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>11163.43946667233</v>
+        <v>11183.34990169839</v>
       </c>
       <c r="R8">
-        <v>11163.43946667233</v>
+        <v>100650.1491152855</v>
       </c>
       <c r="S8">
-        <v>0.211189813166162</v>
+        <v>0.2037390456349213</v>
       </c>
       <c r="T8">
-        <v>0.211189813166162</v>
+        <v>0.2037390456349213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H9">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I9">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J9">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>7198.464593559767</v>
+        <v>7225.440493015638</v>
       </c>
       <c r="R9">
-        <v>7198.464593559767</v>
+        <v>65028.96443714074</v>
       </c>
       <c r="S9">
-        <v>0.1361804663460305</v>
+        <v>0.1316335769942561</v>
       </c>
       <c r="T9">
-        <v>0.1361804663460305</v>
+        <v>0.1316335769942561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H10">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I10">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J10">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>5581.534457632541</v>
+        <v>5635.663036514358</v>
       </c>
       <c r="R10">
-        <v>5581.534457632541</v>
+        <v>50720.96732862922</v>
       </c>
       <c r="S10">
-        <v>0.1055914015395548</v>
+        <v>0.1026709008188202</v>
       </c>
       <c r="T10">
-        <v>0.1055914015395548</v>
+        <v>0.1026709008188202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.69495374097779</v>
+        <v>64.80903633333334</v>
       </c>
       <c r="H11">
-        <v>64.69495374097779</v>
+        <v>194.427109</v>
       </c>
       <c r="I11">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="J11">
-        <v>0.7211722826405752</v>
+        <v>0.7018656279483316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>3689.941752699837</v>
+        <v>3871.326523618534</v>
       </c>
       <c r="R11">
-        <v>3689.941752699837</v>
+        <v>34841.93871256681</v>
       </c>
       <c r="S11">
-        <v>0.06980627356588259</v>
+        <v>0.07052809562396091</v>
       </c>
       <c r="T11">
-        <v>0.06980627356588259</v>
+        <v>0.07052809562396091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H12">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I12">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J12">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>882.5943176220849</v>
+        <v>895.9301563645383</v>
       </c>
       <c r="R12">
-        <v>882.5943176220849</v>
+        <v>8063.371407280844</v>
       </c>
       <c r="S12">
-        <v>0.01669690865405716</v>
+        <v>0.01632211784641877</v>
       </c>
       <c r="T12">
-        <v>0.01669690865405716</v>
+        <v>0.01632211784641877</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H13">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I13">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J13">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>939.4700755649242</v>
+        <v>944.3435731627011</v>
       </c>
       <c r="R13">
-        <v>939.4700755649242</v>
+        <v>8499.092158464309</v>
       </c>
       <c r="S13">
-        <v>0.01777288355672867</v>
+        <v>0.0172041168378735</v>
       </c>
       <c r="T13">
-        <v>0.01777288355672867</v>
+        <v>0.0172041168378735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H14">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I14">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J14">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>605.7937695503902</v>
+        <v>610.1300909678786</v>
       </c>
       <c r="R14">
-        <v>605.7937695503902</v>
+        <v>5491.170818710908</v>
       </c>
       <c r="S14">
-        <v>0.01146039922467626</v>
+        <v>0.01111539239490889</v>
       </c>
       <c r="T14">
-        <v>0.01146039922467626</v>
+        <v>0.01111539239490889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H15">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I15">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J15">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>469.7194457259277</v>
+        <v>475.886225131406</v>
       </c>
       <c r="R15">
-        <v>469.7194457259277</v>
+        <v>4282.976026182653</v>
       </c>
       <c r="S15">
-        <v>0.008886146808026903</v>
+        <v>0.008669728318556268</v>
       </c>
       <c r="T15">
-        <v>0.008886146808026903</v>
+        <v>0.008669728318556266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.44446657870606</v>
+        <v>5.472599666666667</v>
       </c>
       <c r="H16">
-        <v>5.44446657870606</v>
+        <v>16.417799</v>
       </c>
       <c r="I16">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="J16">
-        <v>0.06069095289944988</v>
+        <v>0.05926688342963785</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>310.5306270158358</v>
+        <v>326.9022568665455</v>
       </c>
       <c r="R16">
-        <v>310.5306270158358</v>
+        <v>2942.12031179891</v>
       </c>
       <c r="S16">
-        <v>0.005874614655960893</v>
+        <v>0.005955528031880421</v>
       </c>
       <c r="T16">
-        <v>0.005874614655960893</v>
+        <v>0.00595552803188042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H17">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I17">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J17">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>750.2171941576487</v>
+        <v>767.7096743262508</v>
       </c>
       <c r="R17">
-        <v>750.2171941576487</v>
+        <v>6909.387068936256</v>
       </c>
       <c r="S17">
-        <v>0.01419259982921952</v>
+        <v>0.01398618819466362</v>
       </c>
       <c r="T17">
-        <v>0.01419259982921952</v>
+        <v>0.01398618819466362</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H18">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I18">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J18">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>798.5623632659511</v>
+        <v>809.194435363824</v>
       </c>
       <c r="R18">
-        <v>798.5623632659511</v>
+        <v>7282.749918274416</v>
       </c>
       <c r="S18">
-        <v>0.01510719315522359</v>
+        <v>0.01474196045400287</v>
       </c>
       <c r="T18">
-        <v>0.01510719315522359</v>
+        <v>0.01474196045400287</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H19">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I19">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J19">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>514.9329572557705</v>
+        <v>522.8117059194187</v>
       </c>
       <c r="R19">
-        <v>514.9329572557705</v>
+        <v>4705.305353274768</v>
       </c>
       <c r="S19">
-        <v>0.009741495473738791</v>
+        <v>0.009524619988382103</v>
       </c>
       <c r="T19">
-        <v>0.009741495473738791</v>
+        <v>0.009524619988382105</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H20">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I20">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J20">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>399.2679281725002</v>
+        <v>407.7800666900747</v>
       </c>
       <c r="R20">
-        <v>399.2679281725002</v>
+        <v>3670.020600210672</v>
       </c>
       <c r="S20">
-        <v>0.007553345848806396</v>
+        <v>0.00742896559140684</v>
       </c>
       <c r="T20">
-        <v>0.007553345848806396</v>
+        <v>0.007428965591406839</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.62787076554791</v>
+        <v>4.689392000000001</v>
       </c>
       <c r="H21">
-        <v>4.62787076554791</v>
+        <v>14.068176</v>
       </c>
       <c r="I21">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376966</v>
       </c>
       <c r="J21">
-        <v>0.05158813679840078</v>
+        <v>0.05078494060376965</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>263.9552635320595</v>
+        <v>280.1178455404267</v>
       </c>
       <c r="R21">
-        <v>263.9552635320595</v>
+        <v>2521.06060986384</v>
       </c>
       <c r="S21">
-        <v>0.004993502491412482</v>
+        <v>0.005103206375314216</v>
       </c>
       <c r="T21">
-        <v>0.004993502491412482</v>
+        <v>0.005103206375314216</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H22">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I22">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J22">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>1959.951610107287</v>
+        <v>2187.585360242104</v>
       </c>
       <c r="R22">
-        <v>1959.951610107287</v>
+        <v>19688.26824217894</v>
       </c>
       <c r="S22">
-        <v>0.03707834091715293</v>
+        <v>0.03985358210717926</v>
       </c>
       <c r="T22">
-        <v>0.03707834091715293</v>
+        <v>0.03985358210717926</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H23">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I23">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J23">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>2086.253956644569</v>
+        <v>2305.796005429794</v>
       </c>
       <c r="R23">
-        <v>2086.253956644569</v>
+        <v>20752.16404886814</v>
       </c>
       <c r="S23">
-        <v>0.03946772718536257</v>
+        <v>0.04200715185561132</v>
       </c>
       <c r="T23">
-        <v>0.03946772718536257</v>
+        <v>0.04200715185561132</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H24">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I24">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J24">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>1345.26865890343</v>
+        <v>1489.749670064062</v>
       </c>
       <c r="R24">
-        <v>1345.26865890343</v>
+        <v>13407.74703057656</v>
       </c>
       <c r="S24">
-        <v>0.0254497762611864</v>
+        <v>0.02714036301123834</v>
       </c>
       <c r="T24">
-        <v>0.0254497762611864</v>
+        <v>0.02714036301123835</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H25">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I25">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J25">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>1043.092353494434</v>
+        <v>1161.967517046898</v>
       </c>
       <c r="R25">
-        <v>1043.092353494434</v>
+        <v>10457.70765342208</v>
       </c>
       <c r="S25">
-        <v>0.01973320856060569</v>
+        <v>0.02116880497014239</v>
       </c>
       <c r="T25">
-        <v>0.01973320856060569</v>
+        <v>0.02116880497014239</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.090369067705</v>
+        <v>13.362402</v>
       </c>
       <c r="H26">
-        <v>12.090369067705</v>
+        <v>40.087206</v>
       </c>
       <c r="I26">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="J26">
-        <v>0.1347746393549247</v>
+        <v>0.1447114661972582</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>689.5863595033001</v>
+        <v>798.19457607406</v>
       </c>
       <c r="R26">
-        <v>689.5863595033001</v>
+        <v>7183.751184666539</v>
       </c>
       <c r="S26">
-        <v>0.01304558643061709</v>
+        <v>0.01454156425308685</v>
       </c>
       <c r="T26">
-        <v>0.01304558643061709</v>
+        <v>0.01454156425308685</v>
       </c>
     </row>
   </sheetData>
